--- a/innsender/src/test/resources/__files/filopplastingstyper.xlsx
+++ b/innsender/src/test/resources/__files/filopplastingstyper.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarne/repos/innsending/innsending-api/innsender/src/test/resources/__files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C56A5E2-FF5F-AC4A-9FDC-F2D0A9CB7A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3011E9-637A-6046-8A62-80548D1F1541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{BAAD2CD1-F486-B545-8B6A-A77FB1EB32F3}"/>
+    <workbookView xWindow="-61340" yWindow="4100" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BAAD2CD1-F486-B545-8B6A-A77FB1EB32F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="47">
   <si>
     <t xml:space="preserve"> application/vnd.openxmlformats-officedocument.wordprocessingml.document</t>
   </si>
@@ -124,6 +124,60 @@
   </si>
   <si>
     <t>apple bildeformat</t>
+  </si>
+  <si>
+    <t>msword</t>
+  </si>
+  <si>
+    <t>docx</t>
+  </si>
+  <si>
+    <t>heic</t>
+  </si>
+  <si>
+    <t>text/html</t>
+  </si>
+  <si>
+    <t>text/plain</t>
+  </si>
+  <si>
+    <t>image/x-adobe-dng</t>
+  </si>
+  <si>
+    <t>application/rtf</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>application/x-zip-compressed</t>
+  </si>
+  <si>
+    <t>odt</t>
+  </si>
+  <si>
+    <t>mp4</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>message/rfc822</t>
+  </si>
+  <si>
+    <t>application/x-iwork-pages-sffpages</t>
+  </si>
+  <si>
+    <t>multipart/related</t>
+  </si>
+  <si>
+    <t>text/csv</t>
+  </si>
+  <si>
+    <t>image/tiff</t>
+  </si>
+  <si>
+    <t>ukjent</t>
   </si>
 </sst>
 </file>
@@ -497,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213D3C64-EF24-5946-8C08-6547392F5B7B}">
   <dimension ref="A1:C176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+    <sheetView zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -507,7 +561,7 @@
     <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -515,7 +569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -523,7 +577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -531,7 +585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -539,7 +593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -547,7 +601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -555,7 +609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -563,7 +617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -571,7 +625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -579,7 +633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -587,7 +641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -595,7 +649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -606,7 +660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -614,7 +668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -622,7 +676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -630,7 +684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -638,7 +692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -646,7 +700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -654,7 +708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -662,7 +716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -670,7 +724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -678,7 +732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -686,7 +740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -694,7 +748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -702,7 +756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -710,7 +764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -718,7 +772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -726,7 +780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -734,7 +788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -742,7 +796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -750,7 +804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -758,7 +812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -766,7 +820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -774,7 +828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -782,7 +836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -790,7 +844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -798,7 +852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -806,7 +860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -814,7 +868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -822,7 +876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -830,7 +884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -838,7 +892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -846,7 +900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -854,7 +908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -862,7 +916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -870,7 +924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -878,7 +932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -886,7 +940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -894,7 +948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -902,7 +956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -910,7 +964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -918,7 +972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -926,7 +980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -934,7 +988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -942,7 +996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -950,7 +1004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -958,7 +1012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -966,7 +1020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -974,7 +1028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -982,7 +1036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -1454,7 +1508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +1524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -1518,7 +1572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -1526,7 +1580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -1534,7 +1588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -1542,7 +1596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -1558,7 +1612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -1574,7 +1628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -1585,7 +1639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -1593,7 +1647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -1601,7 +1655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -1609,7 +1663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -1617,7 +1671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -1625,7 +1679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -1633,7 +1687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -1641,7 +1695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +1703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -1657,7 +1711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -1681,7 +1735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -1689,7 +1743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -1697,7 +1751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -1705,7 +1759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -1713,7 +1767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -1721,7 +1775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -1729,7 +1783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -1737,7 +1791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -1745,12 +1799,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="161" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="162" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="163" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1775,6 +1823,176 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0E8A07-F804-6347-B4CD-293520986263}">
+  <dimension ref="A2:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9396317e-03ca-4ddd-bc6f-adf29e7f1a41}" enabled="1" method="Standard" siteId="{62366534-1ec3-4962-8869-9b5535279d0b}" contentBits="0" removed="0"/>

--- a/innsender/src/test/resources/__files/filopplastingstyper.xlsx
+++ b/innsender/src/test/resources/__files/filopplastingstyper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarne/repos/innsending/innsending-api/innsender/src/test/resources/__files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3011E9-637A-6046-8A62-80548D1F1541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009864CE-4238-3D40-8139-14CB72D5063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-61340" yWindow="4100" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BAAD2CD1-F486-B545-8B6A-A77FB1EB32F3}"/>
+    <workbookView xWindow="-31100" yWindow="13860" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BAAD2CD1-F486-B545-8B6A-A77FB1EB32F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="49">
   <si>
     <t xml:space="preserve"> application/vnd.openxmlformats-officedocument.wordprocessingml.document</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>ukjent</t>
+  </si>
+  <si>
+    <t>antall</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -230,6 +236,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5D7E0A9-A35C-B140-B12C-9A1D6E777EE4}" name="Tabell1" displayName="Tabell1" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{F5D7E0A9-A35C-B140-B12C-9A1D6E777EE4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
+    <sortCondition descending="1" ref="B1:B20"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CE8C9885-DD15-1341-B31F-584EC832B8D1}" name="type"/>
+    <tableColumn id="2" xr3:uid="{7439B4BA-DB1C-A548-887E-DE6AF3BD982F}" name="antall"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213D3C64-EF24-5946-8C08-6547392F5B7B}">
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
@@ -1799,22 +1819,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A168">
     <sortCondition ref="A1:A168"/>
@@ -1825,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0E8A07-F804-6347-B4CD-293520986263}">
-  <dimension ref="A2:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1836,20 +1840,28 @@
     <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>280</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1862,10 +1874,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1878,82 +1890,82 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1974,22 +1986,25 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21">
-        <v>110</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
